--- a/Assign_1/Problem_1/aircraft_data.xlsx
+++ b/Assign_1/Problem_1/aircraft_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\PycharmProjects\Airline-Planning-Optimisation\Assign_1\Problem_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EA793-769B-4F46-B028-A42512ECD05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE7EC2-115D-411C-8E8B-4ADF2C7469FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>[-]</t>
   </si>
   <si>
-    <t>Maximum rage</t>
-  </si>
-  <si>
     <t>Runway required</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Weekly lease cost</t>
+  </si>
+  <si>
+    <t>Maximum range</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1500</v>
@@ -539,10 +539,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1400</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>750</v>
